--- a/input/terms_zh2en.xlsx
+++ b/input/terms_zh2en.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV\Projects\pro_translator\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC976EAB-4818-4FEB-8EC8-77B4716F49EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA90E5C8-D787-46EF-B6D4-4347ACE1C4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6272" uniqueCount="6172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6268" uniqueCount="6168">
   <si>
     <t>报告版本号</t>
   </si>
@@ -14054,12 +14054,6 @@
     <t>healthcare</t>
   </si>
   <si>
-    <t>有限公司</t>
-  </si>
-  <si>
-    <t>Co., Ltd.</t>
-  </si>
-  <si>
     <t>电子数据</t>
   </si>
   <si>
@@ -14178,12 +14172,6 @@
   </si>
   <si>
     <t>ratio</t>
-  </si>
-  <si>
-    <t>生物科技有限公司</t>
-  </si>
-  <si>
-    <t>Biotechnology Co., Ltd.</t>
   </si>
   <si>
     <t>平均</t>
@@ -18888,10 +18876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3136"/>
+  <dimension ref="A1:B3134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A2353" workbookViewId="0">
+      <selection activeCell="A2390" sqref="A2390:XFD2390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -37953,23 +37941,23 @@
         <v>4699</v>
       </c>
       <c r="B2382" t="s">
-        <v>4700</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="2383" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2383" t="s">
-        <v>4701</v>
+        <v>4700</v>
       </c>
       <c r="B2383" t="s">
-        <v>3759</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="2384" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2384" t="s">
+        <v>4701</v>
+      </c>
+      <c r="B2384" t="s">
         <v>4702</v>
-      </c>
-      <c r="B2384" t="s">
-        <v>3659</v>
       </c>
     </row>
     <row r="2385" spans="1:2" x14ac:dyDescent="0.15">
@@ -38041,23 +38029,23 @@
         <v>4719</v>
       </c>
       <c r="B2393" t="s">
-        <v>4720</v>
+        <v>4714</v>
       </c>
     </row>
     <row r="2394" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2394" t="s">
+        <v>4720</v>
+      </c>
+      <c r="B2394" t="s">
         <v>4721</v>
-      </c>
-      <c r="B2394" t="s">
-        <v>4722</v>
       </c>
     </row>
     <row r="2395" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2395" t="s">
+        <v>4722</v>
+      </c>
+      <c r="B2395" t="s">
         <v>4723</v>
-      </c>
-      <c r="B2395" t="s">
-        <v>4718</v>
       </c>
     </row>
     <row r="2396" spans="1:2" x14ac:dyDescent="0.15">
@@ -38249,23 +38237,23 @@
         <v>4770</v>
       </c>
       <c r="B2419" t="s">
-        <v>4771</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="2420" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2420" t="s">
+        <v>4771</v>
+      </c>
+      <c r="B2420" t="s">
         <v>4772</v>
-      </c>
-      <c r="B2420" t="s">
-        <v>4773</v>
       </c>
     </row>
     <row r="2421" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2421" t="s">
+        <v>4773</v>
+      </c>
+      <c r="B2421" t="s">
         <v>4774</v>
-      </c>
-      <c r="B2421" t="s">
-        <v>3582</v>
       </c>
     </row>
     <row r="2422" spans="1:2" x14ac:dyDescent="0.15">
@@ -38321,23 +38309,23 @@
         <v>4787</v>
       </c>
       <c r="B2428" t="s">
-        <v>4788</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="2429" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2429" t="s">
+        <v>4788</v>
+      </c>
+      <c r="B2429" t="s">
         <v>4789</v>
-      </c>
-      <c r="B2429" t="s">
-        <v>4790</v>
       </c>
     </row>
     <row r="2430" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2430" t="s">
+        <v>4790</v>
+      </c>
+      <c r="B2430" t="s">
         <v>4791</v>
-      </c>
-      <c r="B2430" t="s">
-        <v>3675</v>
       </c>
     </row>
     <row r="2431" spans="1:2" x14ac:dyDescent="0.15">
@@ -39137,23 +39125,23 @@
         <v>4990</v>
       </c>
       <c r="B2530" t="s">
-        <v>4991</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="2531" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2531" t="s">
+        <v>4991</v>
+      </c>
+      <c r="B2531" t="s">
         <v>4992</v>
-      </c>
-      <c r="B2531" t="s">
-        <v>4993</v>
       </c>
     </row>
     <row r="2532" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2532" t="s">
+        <v>4993</v>
+      </c>
+      <c r="B2532" t="s">
         <v>4994</v>
-      </c>
-      <c r="B2532" t="s">
-        <v>1943</v>
       </c>
     </row>
     <row r="2533" spans="1:2" x14ac:dyDescent="0.15">
@@ -39545,47 +39533,47 @@
         <v>5091</v>
       </c>
       <c r="B2581" t="s">
-        <v>5092</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="2582" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2582" t="s">
+        <v>5092</v>
+      </c>
+      <c r="B2582" t="s">
         <v>5093</v>
-      </c>
-      <c r="B2582" t="s">
-        <v>5094</v>
       </c>
     </row>
     <row r="2583" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2583" t="s">
-        <v>5095</v>
+        <v>5094</v>
       </c>
       <c r="B2583" t="s">
-        <v>1119</v>
+        <v>493</v>
       </c>
     </row>
     <row r="2584" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2584" t="s">
-        <v>5096</v>
+        <v>5095</v>
       </c>
       <c r="B2584" t="s">
-        <v>5097</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="2585" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2585" t="s">
-        <v>5098</v>
+        <v>5096</v>
       </c>
       <c r="B2585" t="s">
-        <v>493</v>
+        <v>5097</v>
       </c>
     </row>
     <row r="2586" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2586" t="s">
+        <v>5098</v>
+      </c>
+      <c r="B2586" t="s">
         <v>5099</v>
-      </c>
-      <c r="B2586" t="s">
-        <v>1545</v>
       </c>
     </row>
     <row r="2587" spans="1:2" x14ac:dyDescent="0.15">
@@ -39777,23 +39765,23 @@
         <v>5146</v>
       </c>
       <c r="B2610" t="s">
-        <v>5147</v>
+        <v>5145</v>
       </c>
     </row>
     <row r="2611" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2611" t="s">
+        <v>5147</v>
+      </c>
+      <c r="B2611" t="s">
         <v>5148</v>
-      </c>
-      <c r="B2611" t="s">
-        <v>5149</v>
       </c>
     </row>
     <row r="2612" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2612" t="s">
+        <v>5149</v>
+      </c>
+      <c r="B2612" t="s">
         <v>5150</v>
-      </c>
-      <c r="B2612" t="s">
-        <v>5149</v>
       </c>
     </row>
     <row r="2613" spans="1:2" x14ac:dyDescent="0.15">
@@ -39857,23 +39845,23 @@
         <v>5165</v>
       </c>
       <c r="B2620" t="s">
-        <v>5166</v>
+        <v>5164</v>
       </c>
     </row>
     <row r="2621" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2621" t="s">
+        <v>5166</v>
+      </c>
+      <c r="B2621" t="s">
         <v>5167</v>
-      </c>
-      <c r="B2621" t="s">
-        <v>5168</v>
       </c>
     </row>
     <row r="2622" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2622" t="s">
+        <v>5168</v>
+      </c>
+      <c r="B2622" t="s">
         <v>5169</v>
-      </c>
-      <c r="B2622" t="s">
-        <v>5168</v>
       </c>
     </row>
     <row r="2623" spans="1:2" x14ac:dyDescent="0.15">
@@ -40433,47 +40421,47 @@
         <v>5308</v>
       </c>
       <c r="B2692" t="s">
-        <v>5309</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="2693" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2693" t="s">
-        <v>5310</v>
+        <v>5309</v>
       </c>
       <c r="B2693" t="s">
-        <v>5311</v>
+        <v>439</v>
       </c>
     </row>
     <row r="2694" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2694" t="s">
-        <v>5312</v>
+        <v>5310</v>
       </c>
       <c r="B2694" t="s">
-        <v>1416</v>
+        <v>5311</v>
       </c>
     </row>
     <row r="2695" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2695" t="s">
-        <v>5313</v>
+        <v>5312</v>
       </c>
       <c r="B2695" t="s">
-        <v>439</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="2696" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2696" t="s">
+        <v>5313</v>
+      </c>
+      <c r="B2696" t="s">
         <v>5314</v>
-      </c>
-      <c r="B2696" t="s">
-        <v>5315</v>
       </c>
     </row>
     <row r="2697" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2697" t="s">
+        <v>5315</v>
+      </c>
+      <c r="B2697" t="s">
         <v>5316</v>
-      </c>
-      <c r="B2697" t="s">
-        <v>2543</v>
       </c>
     </row>
     <row r="2698" spans="1:2" x14ac:dyDescent="0.15">
@@ -40481,23 +40469,23 @@
         <v>5317</v>
       </c>
       <c r="B2698" t="s">
-        <v>5318</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2699" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2699" t="s">
+        <v>5318</v>
+      </c>
+      <c r="B2699" t="s">
         <v>5319</v>
-      </c>
-      <c r="B2699" t="s">
-        <v>5320</v>
       </c>
     </row>
     <row r="2700" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2700" t="s">
+        <v>5320</v>
+      </c>
+      <c r="B2700" t="s">
         <v>5321</v>
-      </c>
-      <c r="B2700" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="2701" spans="1:2" x14ac:dyDescent="0.15">
@@ -40617,23 +40605,23 @@
         <v>5350</v>
       </c>
       <c r="B2715" t="s">
-        <v>5351</v>
+        <v>539</v>
       </c>
     </row>
     <row r="2716" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2716" t="s">
+        <v>5351</v>
+      </c>
+      <c r="B2716" t="s">
         <v>5352</v>
-      </c>
-      <c r="B2716" t="s">
-        <v>5353</v>
       </c>
     </row>
     <row r="2717" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2717" t="s">
+        <v>5353</v>
+      </c>
+      <c r="B2717" t="s">
         <v>5354</v>
-      </c>
-      <c r="B2717" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="2718" spans="1:2" x14ac:dyDescent="0.15">
@@ -40761,23 +40749,23 @@
         <v>5385</v>
       </c>
       <c r="B2733" t="s">
-        <v>5386</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="2734" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2734" t="s">
+        <v>5386</v>
+      </c>
+      <c r="B2734" t="s">
         <v>5387</v>
-      </c>
-      <c r="B2734" t="s">
-        <v>5388</v>
       </c>
     </row>
     <row r="2735" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2735" t="s">
+        <v>5388</v>
+      </c>
+      <c r="B2735" t="s">
         <v>5389</v>
-      </c>
-      <c r="B2735" t="s">
-        <v>5133</v>
       </c>
     </row>
     <row r="2736" spans="1:2" x14ac:dyDescent="0.15">
@@ -40961,23 +40949,23 @@
         <v>5434</v>
       </c>
       <c r="B2758" t="s">
-        <v>5435</v>
+        <v>563</v>
       </c>
     </row>
     <row r="2759" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2759" t="s">
+        <v>5435</v>
+      </c>
+      <c r="B2759" t="s">
         <v>5436</v>
-      </c>
-      <c r="B2759" t="s">
-        <v>5437</v>
       </c>
     </row>
     <row r="2760" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2760" t="s">
+        <v>5437</v>
+      </c>
+      <c r="B2760" t="s">
         <v>5438</v>
-      </c>
-      <c r="B2760" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="2761" spans="1:2" x14ac:dyDescent="0.15">
@@ -41289,23 +41277,23 @@
         <v>5515</v>
       </c>
       <c r="B2799" t="s">
-        <v>5516</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="2800" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2800" t="s">
+        <v>5516</v>
+      </c>
+      <c r="B2800" t="s">
         <v>5517</v>
-      </c>
-      <c r="B2800" t="s">
-        <v>5518</v>
       </c>
     </row>
     <row r="2801" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2801" t="s">
+        <v>5518</v>
+      </c>
+      <c r="B2801" t="s">
         <v>5519</v>
-      </c>
-      <c r="B2801" t="s">
-        <v>3473</v>
       </c>
     </row>
     <row r="2802" spans="1:2" x14ac:dyDescent="0.15">
@@ -41337,23 +41325,23 @@
         <v>5526</v>
       </c>
       <c r="B2805" t="s">
-        <v>5527</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="2806" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2806" t="s">
+        <v>5527</v>
+      </c>
+      <c r="B2806" t="s">
         <v>5528</v>
-      </c>
-      <c r="B2806" t="s">
-        <v>5529</v>
       </c>
     </row>
     <row r="2807" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2807" t="s">
+        <v>5529</v>
+      </c>
+      <c r="B2807" t="s">
         <v>5530</v>
-      </c>
-      <c r="B2807" t="s">
-        <v>3628</v>
       </c>
     </row>
     <row r="2808" spans="1:2" x14ac:dyDescent="0.15">
@@ -41617,23 +41605,23 @@
         <v>5595</v>
       </c>
       <c r="B2840" t="s">
-        <v>5596</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="2841" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2841" t="s">
+        <v>5596</v>
+      </c>
+      <c r="B2841" t="s">
         <v>5597</v>
-      </c>
-      <c r="B2841" t="s">
-        <v>5598</v>
       </c>
     </row>
     <row r="2842" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2842" t="s">
+        <v>5598</v>
+      </c>
+      <c r="B2842" t="s">
         <v>5599</v>
-      </c>
-      <c r="B2842" t="s">
-        <v>1927</v>
       </c>
     </row>
     <row r="2843" spans="1:2" x14ac:dyDescent="0.15">
@@ -41761,23 +41749,23 @@
         <v>5630</v>
       </c>
       <c r="B2858" t="s">
-        <v>5631</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="2859" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2859" t="s">
+        <v>5631</v>
+      </c>
+      <c r="B2859" t="s">
         <v>5632</v>
-      </c>
-      <c r="B2859" t="s">
-        <v>5633</v>
       </c>
     </row>
     <row r="2860" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2860" t="s">
+        <v>5633</v>
+      </c>
+      <c r="B2860" t="s">
         <v>5634</v>
-      </c>
-      <c r="B2860" t="s">
-        <v>3745</v>
       </c>
     </row>
     <row r="2861" spans="1:2" x14ac:dyDescent="0.15">
@@ -41809,31 +41797,31 @@
         <v>5641</v>
       </c>
       <c r="B2864" t="s">
-        <v>5642</v>
+        <v>501</v>
       </c>
     </row>
     <row r="2865" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2865" t="s">
-        <v>5643</v>
+        <v>5642</v>
       </c>
       <c r="B2865" t="s">
-        <v>5644</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="2866" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2866" t="s">
-        <v>5645</v>
+        <v>5643</v>
       </c>
       <c r="B2866" t="s">
-        <v>501</v>
+        <v>5644</v>
       </c>
     </row>
     <row r="2867" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2867" t="s">
+        <v>5645</v>
+      </c>
+      <c r="B2867" t="s">
         <v>5646</v>
-      </c>
-      <c r="B2867" t="s">
-        <v>2735</v>
       </c>
     </row>
     <row r="2868" spans="1:2" x14ac:dyDescent="0.15">
@@ -41937,23 +41925,23 @@
         <v>5671</v>
       </c>
       <c r="B2880" t="s">
-        <v>5672</v>
+        <v>5109</v>
       </c>
     </row>
     <row r="2881" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2881" t="s">
+        <v>5672</v>
+      </c>
+      <c r="B2881" t="s">
         <v>5673</v>
-      </c>
-      <c r="B2881" t="s">
-        <v>5674</v>
       </c>
     </row>
     <row r="2882" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2882" t="s">
+        <v>5674</v>
+      </c>
+      <c r="B2882" t="s">
         <v>5675</v>
-      </c>
-      <c r="B2882" t="s">
-        <v>5113</v>
       </c>
     </row>
     <row r="2883" spans="1:2" x14ac:dyDescent="0.15">
@@ -42185,23 +42173,23 @@
         <v>5732</v>
       </c>
       <c r="B2911" t="s">
-        <v>5733</v>
+        <v>5656</v>
       </c>
     </row>
     <row r="2912" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2912" t="s">
+        <v>5733</v>
+      </c>
+      <c r="B2912" t="s">
         <v>5734</v>
-      </c>
-      <c r="B2912" t="s">
-        <v>5735</v>
       </c>
     </row>
     <row r="2913" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2913" t="s">
+        <v>5735</v>
+      </c>
+      <c r="B2913" t="s">
         <v>5736</v>
-      </c>
-      <c r="B2913" t="s">
-        <v>5660</v>
       </c>
     </row>
     <row r="2914" spans="1:2" x14ac:dyDescent="0.15">
@@ -42833,20 +42821,20 @@
         <v>5893</v>
       </c>
       <c r="B2992" t="s">
-        <v>5894</v>
+        <v>5893</v>
       </c>
     </row>
     <row r="2993" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2993" t="s">
+        <v>5894</v>
+      </c>
+      <c r="B2993" t="s">
         <v>5895</v>
-      </c>
-      <c r="B2993" t="s">
-        <v>5896</v>
       </c>
     </row>
     <row r="2994" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2994" t="s">
-        <v>5897</v>
+        <v>5896</v>
       </c>
       <c r="B2994" t="s">
         <v>5897</v>
@@ -42881,23 +42869,23 @@
         <v>5904</v>
       </c>
       <c r="B2998" t="s">
-        <v>5905</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="2999" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2999" t="s">
+        <v>5905</v>
+      </c>
+      <c r="B2999" t="s">
         <v>5906</v>
-      </c>
-      <c r="B2999" t="s">
-        <v>5907</v>
       </c>
     </row>
     <row r="3000" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3000" t="s">
+        <v>5907</v>
+      </c>
+      <c r="B3000" t="s">
         <v>5908</v>
-      </c>
-      <c r="B3000" t="s">
-        <v>3591</v>
       </c>
     </row>
     <row r="3001" spans="1:2" x14ac:dyDescent="0.15">
@@ -43457,39 +43445,39 @@
         <v>6047</v>
       </c>
       <c r="B3070" t="s">
-        <v>6048</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="3071" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3071" t="s">
-        <v>6049</v>
+        <v>6048</v>
       </c>
       <c r="B3071" t="s">
-        <v>6050</v>
+        <v>5093</v>
       </c>
     </row>
     <row r="3072" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3072" t="s">
-        <v>6051</v>
+        <v>6049</v>
       </c>
       <c r="B3072" t="s">
-        <v>3948</v>
+        <v>5311</v>
       </c>
     </row>
     <row r="3073" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3073" t="s">
-        <v>6052</v>
+        <v>6050</v>
       </c>
       <c r="B3073" t="s">
-        <v>5097</v>
+        <v>6051</v>
       </c>
     </row>
     <row r="3074" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3074" t="s">
+        <v>6052</v>
+      </c>
+      <c r="B3074" t="s">
         <v>6053</v>
-      </c>
-      <c r="B3074" t="s">
-        <v>5315</v>
       </c>
     </row>
     <row r="3075" spans="1:2" x14ac:dyDescent="0.15">
@@ -43785,23 +43773,23 @@
         <v>6126</v>
       </c>
       <c r="B3111" t="s">
-        <v>6127</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="3112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3112" t="s">
+        <v>6127</v>
+      </c>
+      <c r="B3112" t="s">
         <v>6128</v>
-      </c>
-      <c r="B3112" t="s">
-        <v>6129</v>
       </c>
     </row>
     <row r="3113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3113" t="s">
+        <v>6129</v>
+      </c>
+      <c r="B3113" t="s">
         <v>6130</v>
-      </c>
-      <c r="B3113" t="s">
-        <v>2739</v>
       </c>
     </row>
     <row r="3114" spans="1:2" x14ac:dyDescent="0.15">
@@ -43817,23 +43805,23 @@
         <v>6133</v>
       </c>
       <c r="B3115" t="s">
-        <v>6134</v>
+        <v>6132</v>
       </c>
     </row>
     <row r="3116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3116" t="s">
+        <v>6134</v>
+      </c>
+      <c r="B3116" t="s">
         <v>6135</v>
-      </c>
-      <c r="B3116" t="s">
-        <v>6136</v>
       </c>
     </row>
     <row r="3117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3117" t="s">
+        <v>6136</v>
+      </c>
+      <c r="B3117" t="s">
         <v>6137</v>
-      </c>
-      <c r="B3117" t="s">
-        <v>6136</v>
       </c>
     </row>
     <row r="3118" spans="1:2" x14ac:dyDescent="0.15">
@@ -43865,23 +43853,23 @@
         <v>6144</v>
       </c>
       <c r="B3121" t="s">
-        <v>6145</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="3122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3122" t="s">
+        <v>6145</v>
+      </c>
+      <c r="B3122" t="s">
         <v>6146</v>
-      </c>
-      <c r="B3122" t="s">
-        <v>6147</v>
       </c>
     </row>
     <row r="3123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3123" t="s">
+        <v>6147</v>
+      </c>
+      <c r="B3123" t="s">
         <v>6148</v>
-      </c>
-      <c r="B3123" t="s">
-        <v>2541</v>
       </c>
     </row>
     <row r="3124" spans="1:2" x14ac:dyDescent="0.15">
@@ -43889,23 +43877,23 @@
         <v>6149</v>
       </c>
       <c r="B3124" t="s">
-        <v>6150</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="3125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3125" t="s">
+        <v>6150</v>
+      </c>
+      <c r="B3125" t="s">
         <v>6151</v>
-      </c>
-      <c r="B3125" t="s">
-        <v>6152</v>
       </c>
     </row>
     <row r="3126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3126" t="s">
+        <v>6152</v>
+      </c>
+      <c r="B3126" t="s">
         <v>6153</v>
-      </c>
-      <c r="B3126" t="s">
-        <v>1271</v>
       </c>
     </row>
     <row r="3127" spans="1:2" x14ac:dyDescent="0.15">
@@ -43934,58 +43922,42 @@
     </row>
     <row r="3130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3130" t="s">
-        <v>6160</v>
+        <v>4156</v>
       </c>
       <c r="B3130" t="s">
-        <v>6161</v>
+        <v>6164</v>
       </c>
     </row>
     <row r="3131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3131" t="s">
-        <v>6162</v>
+        <v>906</v>
       </c>
       <c r="B3131" t="s">
-        <v>6163</v>
+        <v>6165</v>
       </c>
     </row>
     <row r="3132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3132" t="s">
-        <v>4156</v>
+        <v>6167</v>
       </c>
       <c r="B3132" t="s">
-        <v>6168</v>
+        <v>6166</v>
       </c>
     </row>
     <row r="3133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3133" t="s">
-        <v>906</v>
+        <v>6160</v>
       </c>
       <c r="B3133" t="s">
-        <v>6169</v>
+        <v>6161</v>
       </c>
     </row>
     <row r="3134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3134" t="s">
-        <v>6171</v>
+        <v>6162</v>
       </c>
       <c r="B3134" t="s">
-        <v>6170</v>
-      </c>
-    </row>
-    <row r="3135" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3135" t="s">
-        <v>6164</v>
-      </c>
-      <c r="B3135" t="s">
-        <v>6165</v>
-      </c>
-    </row>
-    <row r="3136" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3136" t="s">
-        <v>6166</v>
-      </c>
-      <c r="B3136" t="s">
-        <v>6167</v>
+        <v>6163</v>
       </c>
     </row>
   </sheetData>
